--- a/Tcc2/Plano de trabalho.xlsx
+++ b/Tcc2/Plano de trabalho.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ismael/git/2019_1/Tcc2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECD3B09-7978-2A45-BA44-3201D3FE10F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4DA1C9-2DD6-2943-81AF-A3C12D1DFA7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" xr2:uid="{FC4FF728-F14B-4311-B9D5-E9B1993F7AA5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Data Inicial</t>
   </si>
@@ -80,6 +80,22 @@
   </si>
   <si>
     <t>Terminar escrita itens 3.3;</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Falta fazer o item 3.2.0
+Todos outros itens OK</t>
+  </si>
+  <si>
+    <t>Falta fazer itens 3.3.2.0, 3.3.2.3</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Implementação fluindo com sucesso</t>
   </si>
 </sst>
 </file>
@@ -138,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,6 +179,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440F02D1-65C5-4E29-BB6D-01F0D26A3156}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -489,9 +512,10 @@
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="3" max="3" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,8 +525,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43516</v>
       </c>
@@ -512,8 +539,11 @@
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43523</v>
       </c>
@@ -523,8 +553,11 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43530</v>
       </c>
@@ -534,8 +567,11 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43537</v>
       </c>
@@ -545,8 +581,11 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43544</v>
       </c>
@@ -556,8 +595,9 @@
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43551</v>
       </c>
@@ -567,8 +607,9 @@
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43558</v>
       </c>
@@ -578,8 +619,9 @@
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43565</v>
       </c>
@@ -589,8 +631,9 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43572</v>
       </c>
@@ -600,8 +643,9 @@
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43579</v>
       </c>
@@ -611,18 +655,21 @@
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>43588</v>
       </c>
@@ -630,8 +677,9 @@
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>43593</v>
       </c>
@@ -639,8 +687,9 @@
       <c r="C15" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43605</v>
       </c>
@@ -650,8 +699,9 @@
       <c r="C16" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>43622</v>
       </c>
@@ -659,6 +709,7 @@
       <c r="C17" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="D17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
